--- a/CH-5-Event-Interaction/excel/sales_data.xlsx
+++ b/CH-5-Event-Interaction/excel/sales_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PyGUI\CH-5-Event-Interaction\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E59370E-8585-42E6-BDBB-2E3373BDD372}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F472CECB-A349-4B76-8964-BC41CF4980FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sales" sheetId="1" r:id="rId1"/>
@@ -442,7 +442,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -452,6 +452,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -483,7 +495,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -493,6 +505,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1570,8 +1584,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F71"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1625,7 +1639,7 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C3" t="s">
@@ -1665,7 +1679,7 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="6" t="s">
         <v>18</v>
       </c>
       <c r="C5" t="s">
@@ -3010,8 +3024,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58FB7A39-108A-42F6-92A8-1E8C88A75A5D}">
   <dimension ref="A2:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="165" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView topLeftCell="A4" zoomScale="165" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
